--- a/XL/OutReach_event_summery.xlsx
+++ b/XL/OutReach_event_summery.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D051A-7315-4289-8A23-970CAF395E5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A68DB7F-6AF9-47BB-A6C4-6A8A7A059E65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,7 +433,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/XL/OutReach_event_summery.xlsx
+++ b/XL/OutReach_event_summery.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A68DB7F-6AF9-47BB-A6C4-6A8A7A059E65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D051A-7315-4289-8A23-970CAF395E5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,7 +432,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
